--- a/制作用説明ファイル/data_y.xlsx
+++ b/制作用説明ファイル/data_y.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85624e3cb42db046/onedrive/PUBLIC_kakuno_PUBLIC/電通研プログラミング/Python/音楽分析ツール/kakuno_music_analysis/制作用説明ファイル/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1027" documentId="8_{9EC1E3AF-0E69-4FFE-A1CB-E78AE70593EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CF13278-2951-4BB6-874A-E0BEFB4BDA4C}"/>
+  <xr:revisionPtr revIDLastSave="1208" documentId="8_{9EC1E3AF-0E69-4FFE-A1CB-E78AE70593EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6455676-77D0-4934-9593-51A8361AB2F6}"/>
   <bookViews>
-    <workbookView xWindow="1236" yWindow="3456" windowWidth="18708" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="396" windowWidth="15456" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputAnswers" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>0lig</t>
   </si>
@@ -293,6 +293,40 @@
   </si>
   <si>
     <t>All_Alone_With_You_trim.mp3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Sense_of_Happiness_trim.mp3</t>
+  </si>
+  <si>
+    <t>veil_trim.mp3</t>
+  </si>
+  <si>
+    <t>アイボリー_trim.mp3</t>
+  </si>
+  <si>
+    <t>インフェルノ_trim.mp3</t>
+  </si>
+  <si>
+    <t>ミライ_trim.mp3</t>
+  </si>
+  <si>
+    <t>ラヴラグ_trim.mp3</t>
+  </si>
+  <si>
+    <t>大正浪漫_trim.mp3</t>
+  </si>
+  <si>
+    <t>時の侭に_trim.mp3</t>
+  </si>
+  <si>
+    <t>蜜蜂_trim.mp3</t>
+  </si>
+  <si>
+    <t>閃光_trim.mp3</t>
+  </si>
+  <si>
+    <t>ド屑_trim.mp3</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1267,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1536,7 +1570,7 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2061,33 +2095,33 @@
         <v>10</v>
       </c>
       <c r="I27">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="B28">
         <v>100</v>
       </c>
       <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
         <v>80</v>
       </c>
-      <c r="D28">
-        <v>60</v>
-      </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>10</v>
-      </c>
       <c r="H28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2095,521 +2129,521 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C29">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E29">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H29">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>85</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>15</v>
+      </c>
+      <c r="F30">
         <v>65</v>
       </c>
-      <c r="C30">
-        <v>20</v>
-      </c>
-      <c r="D30">
-        <v>100</v>
-      </c>
-      <c r="E30">
-        <v>95</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
       <c r="G30">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="B31">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
         <v>95</v>
       </c>
-      <c r="D31">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>25</v>
       </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-      <c r="F31">
-        <v>15</v>
-      </c>
-      <c r="G31">
-        <v>40</v>
-      </c>
       <c r="H31">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="I31">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C32">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="G32">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H32">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I32">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33">
+        <v>80</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <v>25</v>
+      </c>
+      <c r="H33">
         <v>20</v>
       </c>
-      <c r="B33">
-        <v>90</v>
-      </c>
-      <c r="C33">
-        <v>60</v>
-      </c>
-      <c r="D33">
-        <v>30</v>
-      </c>
-      <c r="E33">
-        <v>65</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>50</v>
-      </c>
-      <c r="H33">
-        <v>10</v>
-      </c>
       <c r="I33">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>10</v>
       </c>
       <c r="F34">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G34">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I34">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="C35">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>50</v>
       </c>
-      <c r="G35">
-        <v>65</v>
-      </c>
       <c r="H35">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="I35">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>30</v>
+      </c>
+      <c r="G36">
+        <v>40</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>80</v>
       </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
-      <c r="E36">
-        <v>20</v>
-      </c>
-      <c r="F36">
+      <c r="B37">
+        <v>75</v>
+      </c>
+      <c r="C37">
+        <v>75</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>15</v>
+      </c>
+      <c r="G37">
         <v>80</v>
       </c>
-      <c r="G36">
-        <v>60</v>
-      </c>
-      <c r="H36">
-        <v>85</v>
-      </c>
-      <c r="I36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>80</v>
-      </c>
-      <c r="D37">
-        <v>20</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>60</v>
-      </c>
-      <c r="G37">
-        <v>60</v>
-      </c>
       <c r="H37">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="I37">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B38">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="C38">
+        <v>80</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="G38">
+        <v>65</v>
+      </c>
+      <c r="H38">
+        <v>65</v>
+      </c>
+      <c r="I38">
         <v>20</v>
-      </c>
-      <c r="D38">
-        <v>50</v>
-      </c>
-      <c r="E38">
-        <v>30</v>
-      </c>
-      <c r="F38">
-        <v>45</v>
-      </c>
-      <c r="G38">
-        <v>20</v>
-      </c>
-      <c r="H38">
-        <v>10</v>
-      </c>
-      <c r="I38">
-        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B39">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C39">
+        <v>80</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
         <v>20</v>
       </c>
-      <c r="D39">
-        <v>10</v>
-      </c>
-      <c r="E39">
-        <v>35</v>
-      </c>
       <c r="F39">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="G39">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H39">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I39">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="B40">
+        <v>25</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
         <v>55</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
+      <c r="E40">
+        <v>65</v>
+      </c>
+      <c r="F40">
+        <v>55</v>
+      </c>
+      <c r="G40">
+        <v>60</v>
+      </c>
+      <c r="H40">
+        <v>25</v>
+      </c>
+      <c r="I40">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>80</v>
       </c>
-      <c r="E40">
-        <v>30</v>
-      </c>
-      <c r="F40">
-        <v>5</v>
-      </c>
-      <c r="G40">
-        <v>30</v>
-      </c>
-      <c r="H40">
-        <v>5</v>
-      </c>
-      <c r="I40">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41">
-        <v>55</v>
-      </c>
-      <c r="C41">
-        <v>60</v>
-      </c>
       <c r="D41">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E41">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G41">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H41">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I41">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B42">
+        <v>70</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="F42">
         <v>45</v>
       </c>
-      <c r="C42">
-        <v>25</v>
-      </c>
-      <c r="D42">
-        <v>40</v>
-      </c>
-      <c r="E42">
-        <v>75</v>
-      </c>
-      <c r="F42">
+      <c r="G42">
         <v>20</v>
       </c>
-      <c r="G42">
-        <v>75</v>
-      </c>
       <c r="H42">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I42">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B43">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
         <v>35</v>
       </c>
-      <c r="C43">
-        <v>15</v>
-      </c>
-      <c r="D43">
-        <v>45</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
       <c r="F43">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G43">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H43">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I43">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E44">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F44">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G44">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I44">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B45">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D45">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E45">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="G45">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="H45">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I45">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F46">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G46">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H46">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I46">
         <v>10</v>
@@ -2617,42 +2651,42 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D47">
+        <v>45</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>60</v>
+      </c>
+      <c r="H47">
+        <v>35</v>
+      </c>
+      <c r="I47">
         <v>40</v>
-      </c>
-      <c r="E47">
-        <v>75</v>
-      </c>
-      <c r="F47">
-        <v>10</v>
-      </c>
-      <c r="G47">
-        <v>20</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C48">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2661,187 +2695,187 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G48">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H48">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I48">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C49">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="D49">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G49">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H49">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C50">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E50">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F50">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="G50">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="H50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="I50">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B51">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E51">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F51">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G51">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H51">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I51">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
         <v>40</v>
       </c>
-      <c r="C52">
-        <v>5</v>
-      </c>
-      <c r="D52">
-        <v>35</v>
-      </c>
       <c r="E52">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F52">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G52">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B53">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="G53">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I53">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B54">
+        <v>65</v>
+      </c>
+      <c r="C54">
         <v>80</v>
       </c>
-      <c r="C54">
+      <c r="D54">
+        <v>25</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>30</v>
+      </c>
+      <c r="H54">
         <v>20</v>
-      </c>
-      <c r="D54">
-        <v>60</v>
-      </c>
-      <c r="E54">
-        <v>30</v>
-      </c>
-      <c r="F54">
-        <v>10</v>
-      </c>
-      <c r="G54">
-        <v>65</v>
-      </c>
-      <c r="H54">
-        <v>15</v>
       </c>
       <c r="I54">
         <v>5</v>
@@ -2849,376 +2883,376 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B55">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D55">
+        <v>15</v>
+      </c>
+      <c r="E55">
+        <v>70</v>
+      </c>
+      <c r="F55">
         <v>55</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>90</v>
-      </c>
       <c r="G55">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H55">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I55">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B56">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D56">
         <v>40</v>
       </c>
       <c r="E56">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F56">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I56">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>10</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D57">
+        <v>15</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
+      </c>
+      <c r="F57">
+        <v>80</v>
+      </c>
+      <c r="G57">
         <v>100</v>
       </c>
-      <c r="E57">
-        <v>60</v>
-      </c>
-      <c r="F57">
-        <v>60</v>
-      </c>
-      <c r="G57">
-        <v>30</v>
-      </c>
       <c r="H57">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I57">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B58">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D58">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E58">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F58">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G58">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H58">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I58">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B59">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C59">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D59">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E59">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F59">
         <v>40</v>
       </c>
       <c r="G59">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H59">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B60">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C60">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F60">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="G60">
         <v>50</v>
       </c>
       <c r="H60">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="I60">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C61">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D61">
         <v>60</v>
       </c>
       <c r="E61">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F61">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G61">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H61">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I61">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B62">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C62">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>90</v>
+      </c>
+      <c r="G62">
+        <v>30</v>
+      </c>
+      <c r="H62">
         <v>35</v>
       </c>
-      <c r="F62">
-        <v>30</v>
-      </c>
-      <c r="G62">
-        <v>90</v>
-      </c>
-      <c r="H62">
-        <v>15</v>
-      </c>
       <c r="I62">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B63">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C63">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="D63">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E63">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G63">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B64">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C64">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="E64">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F64">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G64">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B65">
+        <v>40</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65">
         <v>65</v>
       </c>
-      <c r="C65">
+      <c r="E65">
+        <v>100</v>
+      </c>
+      <c r="F65">
         <v>20</v>
       </c>
-      <c r="D65">
-        <v>30</v>
-      </c>
-      <c r="E65">
-        <v>30</v>
-      </c>
-      <c r="F65">
-        <v>15</v>
-      </c>
       <c r="G65">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I65">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B66">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C66">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F66">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H66">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I66">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B67">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C67">
+        <v>85</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>30</v>
+      </c>
+      <c r="G67">
         <v>45</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>15</v>
-      </c>
-      <c r="F67">
-        <v>65</v>
-      </c>
-      <c r="G67">
+      <c r="H67">
         <v>100</v>
-      </c>
-      <c r="H67">
-        <v>55</v>
       </c>
       <c r="I67">
         <v>15</v>
@@ -3226,100 +3260,419 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B68">
+        <v>50</v>
+      </c>
+      <c r="C68">
+        <v>60</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>75</v>
+      </c>
+      <c r="G68">
+        <v>50</v>
+      </c>
+      <c r="H68">
         <v>40</v>
       </c>
-      <c r="C68">
-        <v>10</v>
-      </c>
-      <c r="D68">
-        <v>50</v>
-      </c>
-      <c r="E68">
-        <v>20</v>
-      </c>
-      <c r="F68">
-        <v>5</v>
-      </c>
-      <c r="G68">
-        <v>15</v>
-      </c>
-      <c r="H68">
-        <v>15</v>
-      </c>
       <c r="I68">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C69">
+        <v>100</v>
+      </c>
+      <c r="D69">
+        <v>60</v>
+      </c>
+      <c r="E69">
         <v>35</v>
       </c>
-      <c r="D69">
-        <v>10</v>
-      </c>
-      <c r="E69">
-        <v>40</v>
-      </c>
       <c r="F69">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G69">
         <v>90</v>
       </c>
       <c r="H69">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I69">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70">
+        <v>85</v>
+      </c>
+      <c r="C70">
+        <v>70</v>
+      </c>
+      <c r="D70">
+        <v>50</v>
+      </c>
+      <c r="E70">
+        <v>35</v>
+      </c>
+      <c r="F70">
+        <v>30</v>
+      </c>
+      <c r="G70">
+        <v>90</v>
+      </c>
+      <c r="H70">
+        <v>15</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71">
+        <v>100</v>
+      </c>
+      <c r="C71">
+        <v>75</v>
+      </c>
+      <c r="D71">
+        <v>65</v>
+      </c>
+      <c r="E71">
+        <v>80</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>70</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72">
+        <v>60</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>55</v>
+      </c>
+      <c r="E72">
+        <v>65</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>40</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73">
+        <v>40</v>
+      </c>
+      <c r="C73">
+        <v>65</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>25</v>
+      </c>
+      <c r="G73">
+        <v>75</v>
+      </c>
+      <c r="H73">
+        <v>75</v>
+      </c>
+      <c r="I73">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74">
+        <v>70</v>
+      </c>
+      <c r="C74">
+        <v>50</v>
+      </c>
+      <c r="D74">
+        <v>45</v>
+      </c>
+      <c r="E74">
+        <v>50</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>60</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75">
+        <v>65</v>
+      </c>
+      <c r="C75">
+        <v>20</v>
+      </c>
+      <c r="D75">
+        <v>30</v>
+      </c>
+      <c r="E75">
+        <v>30</v>
+      </c>
+      <c r="F75">
+        <v>15</v>
+      </c>
+      <c r="G75">
+        <v>70</v>
+      </c>
+      <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>30</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>50</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>10</v>
+      </c>
+      <c r="I76">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77">
+        <v>15</v>
+      </c>
+      <c r="C77">
+        <v>45</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>15</v>
+      </c>
+      <c r="F77">
+        <v>65</v>
+      </c>
+      <c r="G77">
+        <v>100</v>
+      </c>
+      <c r="H77">
+        <v>55</v>
+      </c>
+      <c r="I77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78">
+        <v>35</v>
+      </c>
+      <c r="C78">
+        <v>40</v>
+      </c>
+      <c r="D78">
+        <v>30</v>
+      </c>
+      <c r="E78">
+        <v>45</v>
+      </c>
+      <c r="F78">
+        <v>85</v>
+      </c>
+      <c r="G78">
+        <v>75</v>
+      </c>
+      <c r="H78">
+        <v>20</v>
+      </c>
+      <c r="I78">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79">
+        <v>40</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>50</v>
+      </c>
+      <c r="E79">
+        <v>20</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+      <c r="G79">
+        <v>15</v>
+      </c>
+      <c r="H79">
+        <v>15</v>
+      </c>
+      <c r="I79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>35</v>
+      </c>
+      <c r="D80">
+        <v>10</v>
+      </c>
+      <c r="E80">
+        <v>40</v>
+      </c>
+      <c r="F80">
+        <v>70</v>
+      </c>
+      <c r="G80">
+        <v>90</v>
+      </c>
+      <c r="H80">
+        <v>75</v>
+      </c>
+      <c r="I80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
         <v>73</v>
       </c>
-      <c r="B70">
+      <c r="B81">
         <v>25</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
         <v>40</v>
       </c>
-      <c r="E70">
+      <c r="E81">
         <v>50</v>
       </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>30</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>35</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I70" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I70">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I81">
       <sortCondition ref="A1:A70"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="M2:T18 B5:I43 B2:I3 B54:I77">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -3333,7 +3686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:I4">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -3345,7 +3698,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3359,6 +3712,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:I53">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{00A886B9-A398-42FE-A1EA-C5A5D547B957}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:I81">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D30C1CDB-7525-4E3D-8C63-386A7E3CE5AA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3367,7 +3746,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{00A886B9-A398-42FE-A1EA-C5A5D547B957}</x14:id>
+          <x14:id>{A84E5AAA-9868-442F-A272-2BCD6B44018D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3430,6 +3809,29 @@
           </x14:cfRule>
           <xm:sqref>B44:I53</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D30C1CDB-7525-4E3D-8C63-386A7E3CE5AA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{A84E5AAA-9868-442F-A272-2BCD6B44018D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B71:I81</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/制作用説明ファイル/data_y.xlsx
+++ b/制作用説明ファイル/data_y.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85624e3cb42db046/onedrive/PUBLIC_kakuno_PUBLIC/電通研プログラミング/Python/音楽分析ツール/kakuno_music_analysis/制作用説明ファイル/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1208" documentId="8_{9EC1E3AF-0E69-4FFE-A1CB-E78AE70593EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6455676-77D0-4934-9593-51A8361AB2F6}"/>
+  <xr:revisionPtr revIDLastSave="1210" documentId="8_{9EC1E3AF-0E69-4FFE-A1CB-E78AE70593EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36CF535A-B96F-4F28-8E43-76A9F741440D}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="396" windowWidth="15456" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="744" windowWidth="15456" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputAnswers" sheetId="1" r:id="rId1"/>
@@ -1304,7 +1304,7 @@
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/制作用説明ファイル/data_y.xlsx
+++ b/制作用説明ファイル/data_y.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85624e3cb42db046/onedrive/PUBLIC_kakuno_PUBLIC/電通研プログラミング/Python/音楽分析ツール/kakuno_music_analysis/制作用説明ファイル/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1210" documentId="8_{9EC1E3AF-0E69-4FFE-A1CB-E78AE70593EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36CF535A-B96F-4F28-8E43-76A9F741440D}"/>
+  <xr:revisionPtr revIDLastSave="1211" documentId="8_{9EC1E3AF-0E69-4FFE-A1CB-E78AE70593EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36585B97-0B46-4FC5-9C9A-18A3872F6AF3}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="744" windowWidth="15456" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4548" yWindow="528" windowWidth="17280" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputAnswers" sheetId="1" r:id="rId1"/>
@@ -1303,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1345,420 +1345,420 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H3">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I3">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>60</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I4">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G5">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H5">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
         <v>35</v>
       </c>
-      <c r="B6">
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
         <v>70</v>
       </c>
-      <c r="C6">
-        <v>55</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>50</v>
-      </c>
       <c r="I6">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>20</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="I8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G9">
         <v>30</v>
       </c>
       <c r="H9">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I10">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>65</v>
+      </c>
+      <c r="H11">
+        <v>65</v>
+      </c>
+      <c r="I11">
         <v>20</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>25</v>
-      </c>
-      <c r="I11">
-        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="B12">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C12">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
         <v>40</v>
       </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>80</v>
-      </c>
       <c r="H12">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G13">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I13">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G14">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H14">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I14">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B15">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C15">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>75</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
         <v>40</v>
       </c>
-      <c r="D15">
-        <v>80</v>
-      </c>
-      <c r="E15">
-        <v>75</v>
-      </c>
-      <c r="F15">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>55</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
       <c r="I15">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1767,42 +1767,42 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G16">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>45</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
         <v>65</v>
       </c>
-      <c r="C17">
-        <v>40</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
       <c r="G17">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H17">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I17">
         <v>15</v>
@@ -1810,173 +1810,173 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G18">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H18">
+        <v>25</v>
+      </c>
+      <c r="I18">
         <v>100</v>
-      </c>
-      <c r="I18">
-        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F19">
+        <v>55</v>
+      </c>
+      <c r="G19">
+        <v>60</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
         <v>35</v>
-      </c>
-      <c r="G19">
-        <v>25</v>
-      </c>
-      <c r="H19">
-        <v>70</v>
-      </c>
-      <c r="I19">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D20">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="G20">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H20">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="I20">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>65</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="G21">
         <v>75</v>
       </c>
-      <c r="C21">
+      <c r="H21">
+        <v>75</v>
+      </c>
+      <c r="I21">
         <v>25</v>
-      </c>
-      <c r="D21">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>35</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>40</v>
-      </c>
-      <c r="H21">
-        <v>30</v>
-      </c>
-      <c r="I21">
-        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B22">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
         <v>50</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I22">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C23">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F23">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G23">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H23">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1984,106 +1984,106 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>35</v>
+      </c>
+      <c r="F24">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>65</v>
+      </c>
+      <c r="H24">
         <v>25</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-      <c r="F24">
-        <v>20</v>
-      </c>
-      <c r="G24">
-        <v>45</v>
-      </c>
-      <c r="H24">
-        <v>55</v>
-      </c>
       <c r="I24">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B25">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>10</v>
       </c>
       <c r="E25">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F25">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G25">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>70</v>
+      </c>
+      <c r="G26">
         <v>90</v>
       </c>
-      <c r="C26">
-        <v>45</v>
-      </c>
-      <c r="D26">
-        <v>50</v>
-      </c>
-      <c r="E26">
-        <v>50</v>
-      </c>
-      <c r="F26">
-        <v>60</v>
-      </c>
-      <c r="G26">
-        <v>30</v>
-      </c>
       <c r="H26">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F27">
         <v>5</v>
@@ -2092,123 +2092,123 @@
         <v>5</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I27">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B28">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D28">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E28">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G28">
+        <v>75</v>
+      </c>
+      <c r="H28">
+        <v>60</v>
+      </c>
+      <c r="I28">
         <v>80</v>
-      </c>
-      <c r="H28">
-        <v>10</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="B29">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C29">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="D29">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G29">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E30">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F30">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="G30">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="I30">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B31">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>70</v>
+      </c>
+      <c r="F31">
+        <v>55</v>
+      </c>
+      <c r="G31">
         <v>100</v>
       </c>
-      <c r="E31">
-        <v>95</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>25</v>
-      </c>
       <c r="H31">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I31">
         <v>10</v>
@@ -2216,347 +2216,347 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F32">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="G32">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H32">
+        <v>70</v>
+      </c>
+      <c r="I32">
         <v>65</v>
-      </c>
-      <c r="I32">
-        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="B33">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D33">
         <v>15</v>
       </c>
       <c r="E33">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F33">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G33">
+        <v>50</v>
+      </c>
+      <c r="H33">
         <v>25</v>
       </c>
-      <c r="H33">
-        <v>20</v>
-      </c>
       <c r="I33">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C34">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="H34">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I34">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <v>65</v>
+      </c>
+      <c r="C35">
+        <v>40</v>
+      </c>
+      <c r="D35">
         <v>20</v>
       </c>
-      <c r="B35">
-        <v>90</v>
-      </c>
-      <c r="C35">
-        <v>60</v>
-      </c>
-      <c r="D35">
-        <v>30</v>
-      </c>
       <c r="E35">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G35">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H35">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>69</v>
+      <c r="A36" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G36">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H36">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="I36">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="B37">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C37">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
         <v>50</v>
       </c>
-      <c r="E37">
-        <v>5</v>
-      </c>
-      <c r="F37">
-        <v>15</v>
-      </c>
-      <c r="G37">
-        <v>80</v>
-      </c>
       <c r="H37">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="C38">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F38">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G38">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="H38">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I38">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B39">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C39">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="G39">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H39">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="I39">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="B40">
+        <v>55</v>
+      </c>
+      <c r="C40">
+        <v>60</v>
+      </c>
+      <c r="D40">
         <v>25</v>
       </c>
-      <c r="C40">
-        <v>10</v>
-      </c>
-      <c r="D40">
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="F40">
+        <v>95</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>20</v>
+      </c>
+      <c r="I40">
         <v>55</v>
       </c>
-      <c r="E40">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
         <v>65</v>
-      </c>
-      <c r="F40">
-        <v>55</v>
-      </c>
-      <c r="G40">
-        <v>60</v>
-      </c>
-      <c r="H40">
-        <v>25</v>
-      </c>
-      <c r="I40">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
       </c>
       <c r="C41">
         <v>80</v>
       </c>
       <c r="D41">
+        <v>25</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>30</v>
+      </c>
+      <c r="H41">
         <v>20</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>60</v>
-      </c>
-      <c r="G41">
-        <v>60</v>
-      </c>
-      <c r="H41">
-        <v>85</v>
-      </c>
       <c r="I41">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D42">
+        <v>30</v>
+      </c>
+      <c r="E42">
+        <v>65</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>50</v>
       </c>
-      <c r="E42">
-        <v>30</v>
-      </c>
-      <c r="F42">
-        <v>45</v>
-      </c>
-      <c r="G42">
-        <v>20</v>
-      </c>
       <c r="H42">
         <v>10</v>
       </c>
       <c r="I42">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C43">
         <v>20</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E43">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F43">
         <v>15</v>
       </c>
       <c r="G43">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H43">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I43">
         <v>10</v>
@@ -2564,413 +2564,413 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B44">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D44">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E44">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="G44">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I44">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B45">
+        <v>65</v>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45">
+        <v>35</v>
+      </c>
+      <c r="E45">
+        <v>25</v>
+      </c>
+      <c r="F45">
         <v>55</v>
       </c>
-      <c r="C45">
-        <v>60</v>
-      </c>
-      <c r="D45">
-        <v>25</v>
-      </c>
-      <c r="E45">
-        <v>30</v>
-      </c>
-      <c r="F45">
-        <v>95</v>
-      </c>
       <c r="G45">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H45">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B46">
+        <v>60</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>35</v>
+      </c>
+      <c r="E46">
+        <v>70</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
         <v>45</v>
       </c>
-      <c r="C46">
-        <v>25</v>
-      </c>
-      <c r="D46">
-        <v>40</v>
-      </c>
-      <c r="E46">
-        <v>75</v>
-      </c>
-      <c r="F46">
-        <v>20</v>
-      </c>
-      <c r="G46">
-        <v>75</v>
-      </c>
       <c r="H46">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I46">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B47">
+        <v>40</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
         <v>35</v>
       </c>
-      <c r="C47">
-        <v>15</v>
-      </c>
-      <c r="D47">
-        <v>45</v>
-      </c>
       <c r="E47">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G47">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H47">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="B48">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C48">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F48">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G48">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="I48">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B49">
         <v>60</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D49">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E49">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>30</v>
+      </c>
+      <c r="H49">
         <v>35</v>
       </c>
-      <c r="G49">
-        <v>35</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
       <c r="I49">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B50">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D50">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G50">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="H50">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I50">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F51">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G51">
+        <v>20</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>100</v>
-      </c>
-      <c r="H51">
-        <v>5</v>
-      </c>
-      <c r="I51">
-        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D52">
         <v>40</v>
       </c>
       <c r="E52">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I52">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C53">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F53">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="G53">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H53">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="I53">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B54">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="C54">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H54">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C55">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E55">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F55">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="G55">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H55">
+        <v>35</v>
+      </c>
+      <c r="I55">
         <v>40</v>
-      </c>
-      <c r="I55">
-        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B56">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E56">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C57">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D57">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E57">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F57">
+        <v>40</v>
+      </c>
+      <c r="G57">
         <v>80</v>
       </c>
-      <c r="G57">
-        <v>100</v>
-      </c>
       <c r="H57">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I57">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="B58">
         <v>70</v>
@@ -2979,201 +2979,201 @@
         <v>50</v>
       </c>
       <c r="D58">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E58">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H58">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I58">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B59">
+        <v>45</v>
+      </c>
+      <c r="C59">
         <v>40</v>
       </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
       <c r="D59">
+        <v>50</v>
+      </c>
+      <c r="E59">
         <v>35</v>
       </c>
-      <c r="E59">
-        <v>60</v>
-      </c>
       <c r="F59">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G59">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I59">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B60">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C60">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="D60">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G60">
+        <v>40</v>
+      </c>
+      <c r="H60">
         <v>50</v>
       </c>
-      <c r="H60">
-        <v>5</v>
-      </c>
       <c r="I60">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B61">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D61">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E61">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G61">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="H61">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I61">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B62">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D62">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F62">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G62">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="H62">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I62">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B63">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C63">
         <v>20</v>
       </c>
       <c r="D63">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E63">
         <v>30</v>
       </c>
       <c r="F63">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G63">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H63">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I63">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D64">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E64">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F64">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G64">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I64">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B65">
         <v>40</v>
@@ -3182,190 +3182,190 @@
         <v>10</v>
       </c>
       <c r="D65">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E65">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F65">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G65">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="H65">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I65">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66">
+        <v>100</v>
+      </c>
+      <c r="C66">
+        <v>60</v>
+      </c>
+      <c r="D66">
         <v>55</v>
       </c>
-      <c r="B66">
-        <v>60</v>
-      </c>
-      <c r="C66">
-        <v>65</v>
-      </c>
-      <c r="D66">
-        <v>45</v>
-      </c>
       <c r="E66">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F66">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G66">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="H66">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I66">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C67">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F67">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G67">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H67">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I67">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B68">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C68">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F68">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H68">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C69">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D69">
         <v>60</v>
       </c>
       <c r="E69">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F69">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G69">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H69">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I69">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B70">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C70">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E70">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F70">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G70">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="H70">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I70">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B71">
         <v>100</v>
       </c>
       <c r="C71">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D71">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E71">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3376,144 +3376,144 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B72">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D72">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E72">
+        <v>30</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72">
         <v>65</v>
       </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>40</v>
-      </c>
       <c r="H72">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B73">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C73">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E73">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F73">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G73">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H73">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I73">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B74">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C74">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D74">
+        <v>65</v>
+      </c>
+      <c r="E74">
+        <v>100</v>
+      </c>
+      <c r="F74">
+        <v>20</v>
+      </c>
+      <c r="G74">
+        <v>65</v>
+      </c>
+      <c r="H74">
+        <v>10</v>
+      </c>
+      <c r="I74">
         <v>45</v>
-      </c>
-      <c r="E74">
-        <v>50</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>60</v>
-      </c>
-      <c r="H74">
-        <v>5</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B75">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>75</v>
+      </c>
+      <c r="D75">
         <v>65</v>
       </c>
-      <c r="C75">
-        <v>20</v>
-      </c>
-      <c r="D75">
-        <v>30</v>
-      </c>
       <c r="E75">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F75">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>70</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B76">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C76">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F76">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H76">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I76">
         <v>35</v>
@@ -3521,86 +3521,86 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B77">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C77">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E77">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F77">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="G77">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H77">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="I77">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B78">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="C78">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D78">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E78">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="F78">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="G78">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H78">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I78">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B79">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C79">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D79">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E79">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="F79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H79">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I79">
         <v>10</v>
@@ -3608,66 +3608,66 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>100</v>
+      </c>
+      <c r="E80">
+        <v>90</v>
+      </c>
+      <c r="F80">
         <v>35</v>
       </c>
-      <c r="D80">
-        <v>10</v>
-      </c>
-      <c r="E80">
-        <v>40</v>
-      </c>
-      <c r="F80">
-        <v>70</v>
-      </c>
       <c r="G80">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B81">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E81">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G81">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I70" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I81">
-      <sortCondition ref="A1:A70"/>
+      <sortCondition ref="D1:D70"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18"/>
